--- a/resources/historical_rulesv5.xlsx
+++ b/resources/historical_rulesv5.xlsx
@@ -573,25 +573,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C4" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E4" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4166666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>16.25</v>
@@ -599,8 +599,10 @@
       <c r="H4" t="n">
         <v>0.02406311637080868</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.67032967032967</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -612,25 +614,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C5" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E5" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G5" t="n">
         <v>16.25</v>
@@ -638,10 +640,8 @@
       <c r="H5" t="n">
         <v>0.02406311637080868</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I5" t="n">
+        <v>1.67032967032967</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -733,25 +733,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C8" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E8" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G8" t="n">
         <v>15</v>
@@ -759,10 +759,8 @@
       <c r="H8" t="n">
         <v>0.02393162393162393</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I8" t="n">
+        <v>1.583333333333333</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -774,25 +772,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C9" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E9" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3846153846153846</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>15</v>
@@ -800,8 +798,10 @@
       <c r="H9" t="n">
         <v>0.02393162393162393</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.583333333333333</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -813,25 +813,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>frozenset({'SapHana'})</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C10" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E10" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G10" t="n">
         <v>13.54166666666666</v>
@@ -840,7 +840,7 @@
         <v>0.02374753451676528</v>
       </c>
       <c r="I10" t="n">
-        <v>5.630769230769229</v>
+        <v>1.661538461538461</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -852,25 +852,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C11" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E11" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G11" t="n">
         <v>13.54166666666666</v>
@@ -879,7 +879,7 @@
         <v>0.02374753451676528</v>
       </c>
       <c r="I11" t="n">
-        <v>1.661538461538461</v>
+        <v>5.630769230769229</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D18" t="n">
         <v>0.1076923076923077</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>9.285714285714285</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02745562130177515</v>
+        <v>0.02287968441814596</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1171,29 +1171,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0.1076923076923077</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G19" t="n">
         <v>9.285714285714285</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02745562130177515</v>
+        <v>0.02287968441814596</v>
       </c>
       <c r="I19" t="n">
-        <v>1.356923076923077</v>
+        <v>1.278846153846154</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1205,34 +1205,36 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C20" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.1076923076923077</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E20" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2380952380952381</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>9.285714285714285</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02287968441814596</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.278846153846154</v>
+        <v>0.02745562130177515</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1244,36 +1246,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G21" t="n">
         <v>9.285714285714285</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02287968441814596</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02745562130177515</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.356923076923077</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1368,29 +1368,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0.1282051282051282</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G24" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02235371466140697</v>
+        <v>0.02682445759368837</v>
       </c>
       <c r="I24" t="n">
-        <v>1.217948717948718</v>
+        <v>1.275303643724696</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1443,34 +1443,36 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C26" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.1282051282051282</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E26" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02682445759368837</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.275303643724696</v>
+        <v>0.02235371466140697</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1482,25 +1484,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C27" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="E27" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G27" t="n">
         <v>7.800000000000001</v>
@@ -1508,10 +1510,8 @@
       <c r="H27" t="n">
         <v>0.02235371466140697</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I27" t="n">
+        <v>1.217948717948718</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1523,25 +1523,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C28" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E28" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G28" t="n">
         <v>7.738095238095237</v>
@@ -1550,7 +1550,7 @@
         <v>0.04465483234714004</v>
       </c>
       <c r="I28" t="n">
-        <v>1.791608391608392</v>
+        <v>5.353846153846151</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1562,25 +1562,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C29" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E29" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G29" t="n">
         <v>7.738095238095237</v>
@@ -1589,7 +1589,7 @@
         <v>0.04465483234714004</v>
       </c>
       <c r="I29" t="n">
-        <v>5.353846153846151</v>
+        <v>1.791608391608392</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1681,25 +1681,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C32" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E32" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G32" t="n">
         <v>7.5</v>
@@ -1707,10 +1707,8 @@
       <c r="H32" t="n">
         <v>0.02222222222222222</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I32" t="n">
+        <v>1.206349206349206</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1722,25 +1720,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C33" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E33" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1923076923076923</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>7.5</v>
@@ -1748,8 +1746,10 @@
       <c r="H33" t="n">
         <v>0.02222222222222222</v>
       </c>
-      <c r="I33" t="n">
-        <v>1.206349206349206</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1995,25 +1995,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C40" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E40" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G40" t="n">
         <v>6.346153846153846</v>
@@ -2022,7 +2022,7 @@
         <v>0.04752136752136752</v>
       </c>
       <c r="I40" t="n">
-        <v>1.617777777777778</v>
+        <v>5.633333333333333</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2034,25 +2034,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C41" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E41" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="G41" t="n">
         <v>6.346153846153846</v>
@@ -2061,7 +2061,7 @@
         <v>0.04752136752136752</v>
       </c>
       <c r="I41" t="n">
-        <v>5.633333333333333</v>
+        <v>1.617777777777778</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2073,25 +2073,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C42" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.09743589743589744</v>
       </c>
       <c r="E42" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G42" t="n">
         <v>6.315789473684211</v>
@@ -2100,7 +2100,7 @@
         <v>0.03452991452991453</v>
       </c>
       <c r="I42" t="n">
-        <v>2.346666666666667</v>
+        <v>1.612121212121212</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2112,25 +2112,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C43" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E43" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G43" t="n">
         <v>6.315789473684211</v>
@@ -2139,7 +2139,7 @@
         <v>0.03452991452991453</v>
       </c>
       <c r="I43" t="n">
-        <v>1.612121212121212</v>
+        <v>2.346666666666667</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2151,34 +2151,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>frozenset({'Cassandra'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G44" t="n">
         <v>6.249999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02153846153846154</v>
+        <v>0.04307692307692308</v>
       </c>
       <c r="I44" t="n">
-        <v>1.6</v>
+        <v>5.199999999999998</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2190,22 +2190,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>frozenset({'Cassandra'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D45" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F45" t="n">
         <v>0.3846153846153846</v>
@@ -2214,7 +2214,7 @@
         <v>6.249999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02153846153846154</v>
+        <v>0.04307692307692308</v>
       </c>
       <c r="I45" t="n">
         <v>1.525</v>
@@ -2229,25 +2229,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C46" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E46" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G46" t="n">
         <v>6.249999999999999</v>
@@ -2256,7 +2256,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I46" t="n">
-        <v>1.525</v>
+        <v>1.6</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2307,22 +2307,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D48" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F48" t="n">
         <v>0.3846153846153846</v>
@@ -2331,7 +2331,7 @@
         <v>6.249999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04307692307692308</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="I48" t="n">
         <v>1.525</v>
@@ -2346,34 +2346,34 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="C49" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.06153846153846154</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.1333333333333333</v>
-      </c>
       <c r="E49" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G49" t="n">
         <v>6.249999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04307692307692308</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="I49" t="n">
-        <v>5.199999999999998</v>
+        <v>1.525</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -2385,25 +2385,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C50" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E50" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.8095238095238094</v>
       </c>
       <c r="G50" t="n">
         <v>6.071428571428571</v>
@@ -2412,7 +2412,7 @@
         <v>0.07282051282051281</v>
       </c>
       <c r="I50" t="n">
-        <v>2.577777777777778</v>
+        <v>4.549999999999998</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2424,25 +2424,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C51" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E51" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8095238095238094</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G51" t="n">
         <v>6.071428571428571</v>
@@ -2451,7 +2451,7 @@
         <v>0.07282051282051281</v>
       </c>
       <c r="I51" t="n">
-        <v>4.549999999999998</v>
+        <v>2.577777777777778</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -2619,34 +2619,36 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C56" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D56" t="n">
-        <v>0.06666666666666667</v>
-      </c>
       <c r="E56" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2888888888888889</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1.3125</v>
+        <v>0.04733727810650888</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -2658,36 +2660,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G57" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04733727810650888</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.27972027972028</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -2699,36 +2699,34 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="G58" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04733727810650888</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02761341222879684</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.1417004048583</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2740,34 +2738,36 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C59" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D59" t="n">
-        <v>0.06153846153846154</v>
-      </c>
       <c r="E59" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0.04733727810650888</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.27972027972028</v>
+        <v>0.02761341222879684</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -2779,36 +2779,34 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="G60" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02761341222879684</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.3125</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2820,34 +2818,36 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C61" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D61" t="n">
-        <v>0.03589743589743589</v>
-      </c>
       <c r="E61" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1555555555555555</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02761341222879684</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.1417004048583</v>
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -2859,25 +2859,25 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C62" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.2307692307692308</v>
       </c>
       <c r="E62" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G62" t="n">
         <v>4.333333333333333</v>
@@ -2885,10 +2885,8 @@
       <c r="H62" t="n">
         <v>0.01972386587771203</v>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I62" t="n">
+        <v>1.096153846153846</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -2900,25 +2898,25 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C63" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D63" t="n">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E63" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>4.333333333333333</v>
@@ -2926,8 +2924,10 @@
       <c r="H63" t="n">
         <v>0.01972386587771203</v>
       </c>
-      <c r="I63" t="n">
-        <v>1.096153846153846</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3136,25 +3136,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C69" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="D69" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="E69" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="G69" t="n">
         <v>3.9</v>
@@ -3163,7 +3163,7 @@
         <v>0.02287968441814596</v>
       </c>
       <c r="I69" t="n">
-        <v>1.743589743589744</v>
+        <v>1.234817813765182</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3175,25 +3175,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C70" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D70" t="n">
         <v>0.1282051282051282</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E70" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F70" t="n">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
       <c r="G70" t="n">
         <v>3.9</v>
@@ -3202,7 +3202,7 @@
         <v>0.02287968441814596</v>
       </c>
       <c r="I70" t="n">
-        <v>1.234817813765182</v>
+        <v>1.743589743589744</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -3214,25 +3214,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C71" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D71" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E71" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G71" t="n">
         <v>3.9</v>
@@ -3240,10 +3240,8 @@
       <c r="H71" t="n">
         <v>0.04575936883629192</v>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I71" t="n">
+        <v>1.234817813765182</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3255,25 +3253,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C72" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D72" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E72" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="F72" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>3.9</v>
@@ -3281,8 +3279,10 @@
       <c r="H72" t="n">
         <v>0.04575936883629192</v>
       </c>
-      <c r="I72" t="n">
-        <v>1.234817813765182</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -3294,7 +3294,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3303,13 +3303,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D73" t="n">
         <v>0.2564102564102564</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3318,7 +3318,7 @@
         <v>3.9</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02287968441814596</v>
+        <v>0.04957264957264958</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3335,34 +3335,36 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C74" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D74" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="D74" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E74" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F74" t="n">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>3.9</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02287968441814596</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.101398601398601</v>
+        <v>0.0190664036817883</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -3374,36 +3376,34 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E75" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G75" t="n">
         <v>3.9</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0190664036817883</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02287968441814596</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.101398601398601</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -3415,34 +3415,36 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C76" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D76" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="D76" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E76" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>3.9</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0190664036817883</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1.082621082621082</v>
+        <v>0.02287968441814596</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -3459,29 +3461,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0.2564102564102564</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E77" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F77" t="n">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="G77" t="n">
         <v>3.9</v>
       </c>
       <c r="H77" t="n">
-        <v>0.04957264957264958</v>
+        <v>0.0190664036817883</v>
       </c>
       <c r="I77" t="n">
-        <v>1.261261261261261</v>
+        <v>1.082621082621082</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -3534,25 +3536,25 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C79" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D79" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E79" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="G79" t="n">
         <v>3.9</v>
@@ -3560,10 +3562,8 @@
       <c r="H79" t="n">
         <v>0.04957264957264958</v>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I79" t="n">
+        <v>1.261261261261261</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -3575,25 +3575,25 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C80" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D80" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E80" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F80" t="n">
-        <v>0.75</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="G80" t="n">
         <v>3.848684210526316</v>
@@ -3602,7 +3602,7 @@
         <v>0.03416173570019724</v>
       </c>
       <c r="I80" t="n">
-        <v>3.220512820512821</v>
+        <v>1.229708222811671</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -3614,25 +3614,25 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C81" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D81" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E81" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="G81" t="n">
         <v>3.848684210526316</v>
@@ -3641,7 +3641,7 @@
         <v>0.03416173570019724</v>
       </c>
       <c r="I81" t="n">
-        <v>1.229708222811671</v>
+        <v>3.220512820512821</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -3658,29 +3658,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>frozenset({'IBM DB2'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>0.2307692307692308</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G82" t="n">
         <v>3.714285714285714</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06745562130177515</v>
+        <v>0.02248520710059172</v>
       </c>
       <c r="I82" t="n">
-        <v>1.487179487179487</v>
+        <v>1.112426035502958</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -3697,29 +3697,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>0.2307692307692308</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="G83" t="n">
         <v>3.714285714285714</v>
       </c>
       <c r="H83" t="n">
-        <v>0.02248520710059172</v>
+        <v>0.06745562130177515</v>
       </c>
       <c r="I83" t="n">
-        <v>1.112426035502958</v>
+        <v>1.487179487179487</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -3809,25 +3809,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C86" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D86" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E86" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1132075471698113</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>3.679245283018868</v>
@@ -3835,8 +3835,10 @@
       <c r="H86" t="n">
         <v>0.02240631163708087</v>
       </c>
-      <c r="I86" t="n">
-        <v>1.092962356792144</v>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3848,25 +3850,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>frozenset({'SapHana'})</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C87" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D87" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E87" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="G87" t="n">
         <v>3.679245283018868</v>
@@ -3874,10 +3876,8 @@
       <c r="H87" t="n">
         <v>0.02240631163708087</v>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I87" t="n">
+        <v>1.092962356792144</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -3889,25 +3889,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C88" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D88" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E88" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09433962264150944</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>3.679245283018868</v>
@@ -3915,8 +3915,10 @@
       <c r="H88" t="n">
         <v>0.01867192636423406</v>
       </c>
-      <c r="I88" t="n">
-        <v>1.075854700854701</v>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -3974,7 +3976,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -4008,25 +4010,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C91" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D91" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E91" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G91" t="n">
         <v>3.679245283018868</v>
@@ -4034,10 +4036,8 @@
       <c r="H91" t="n">
         <v>0.01867192636423406</v>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I91" t="n">
+        <v>1.075854700854701</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -4127,25 +4127,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>frozenset({'DynamoDB'})</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C94" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D94" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E94" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="G94" t="n">
         <v>3.592105263157895</v>
@@ -4154,7 +4154,7 @@
         <v>0.02590401051939513</v>
       </c>
       <c r="I94" t="n">
-        <v>2.683760683760684</v>
+        <v>1.162944582299421</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -4166,25 +4166,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>frozenset({'DynamoDB'})</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>frozenset({'DynamoDB'})</t>
-        </is>
-      </c>
       <c r="C95" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D95" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E95" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="G95" t="n">
         <v>3.592105263157895</v>
@@ -4193,7 +4193,7 @@
         <v>0.02590401051939513</v>
       </c>
       <c r="I95" t="n">
-        <v>1.162944582299421</v>
+        <v>2.683760683760684</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -4205,25 +4205,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C96" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D96" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E96" t="n">
         <v>0.1282051282051282</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9615384615384615</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="G96" t="n">
         <v>3.537735849056604</v>
@@ -4232,7 +4232,7 @@
         <v>0.09196581196581197</v>
       </c>
       <c r="I96" t="n">
-        <v>18.93333333333329</v>
+        <v>1.640476190476191</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -4244,25 +4244,25 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C97" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D97" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E97" t="n">
         <v>0.1282051282051282</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.9615384615384615</v>
       </c>
       <c r="G97" t="n">
         <v>3.537735849056604</v>
@@ -4271,7 +4271,7 @@
         <v>0.09196581196581197</v>
       </c>
       <c r="I97" t="n">
-        <v>1.640476190476191</v>
+        <v>18.93333333333329</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -4283,25 +4283,25 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C98" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D98" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E98" t="n">
         <v>0.1025641025641026</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="G98" t="n">
         <v>3.504043126684636</v>
@@ -4310,7 +4310,7 @@
         <v>0.0732938856015779</v>
       </c>
       <c r="I98" t="n">
-        <v>1.433100233100233</v>
+        <v>15.29230769230768</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -4322,25 +4322,25 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C99" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D99" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E99" t="n">
         <v>0.1025641025641026</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="G99" t="n">
         <v>3.504043126684636</v>
@@ -4349,7 +4349,7 @@
         <v>0.0732938856015779</v>
       </c>
       <c r="I99" t="n">
-        <v>15.29230769230768</v>
+        <v>1.433100233100233</v>
       </c>
       <c r="J99" t="n">
         <v>1</v>
@@ -4439,7 +4439,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4448,13 +4448,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D102" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="E102" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>3.482142857142857</v>
       </c>
       <c r="H102" t="n">
-        <v>0.02558842866535174</v>
+        <v>0.01827744904667981</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -4480,25 +4480,25 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C103" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D103" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E103" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="G103" t="n">
         <v>3.482142857142857</v>
@@ -4506,10 +4506,8 @@
       <c r="H103" t="n">
         <v>0.01827744904667981</v>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I103" t="n">
+        <v>1.069884364002011</v>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -4521,34 +4519,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C104" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D104" t="n">
         <v>0.2871794871794872</v>
       </c>
-      <c r="D104" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E104" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F104" t="n">
-        <v>0.08928571428571429</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>3.482142857142857</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01827744904667981</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1.069884364002011</v>
+        <v>0.02193293885601578</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -4565,29 +4565,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F105" t="n">
-        <v>0.125</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="G105" t="n">
         <v>3.482142857142857</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02558842866535174</v>
+        <v>0.02193293885601578</v>
       </c>
       <c r="I105" t="n">
-        <v>1.101831501831502</v>
+        <v>1.085538461538462</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -4604,29 +4604,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="D106" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E106" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1071428571428572</v>
+        <v>0.125</v>
       </c>
       <c r="G106" t="n">
         <v>3.482142857142857</v>
       </c>
       <c r="H106" t="n">
-        <v>0.02193293885601578</v>
+        <v>0.02558842866535174</v>
       </c>
       <c r="I106" t="n">
-        <v>1.085538461538462</v>
+        <v>1.101831501831502</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -4638,7 +4638,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="D107" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -4662,7 +4662,7 @@
         <v>3.482142857142857</v>
       </c>
       <c r="H107" t="n">
-        <v>0.02193293885601578</v>
+        <v>0.02558842866535174</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -4679,25 +4679,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C108" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D108" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E108" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.2264150943396227</v>
       </c>
       <c r="G108" t="n">
         <v>3.39622641509434</v>
@@ -4706,7 +4706,7 @@
         <v>0.04341880341880343</v>
       </c>
       <c r="I108" t="n">
-        <v>9.466666666666674</v>
+        <v>1.20650406504065</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -4718,25 +4718,25 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C109" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D109" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E109" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2264150943396227</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G109" t="n">
         <v>3.39622641509434</v>
@@ -4745,7 +4745,7 @@
         <v>0.04341880341880343</v>
       </c>
       <c r="I109" t="n">
-        <v>1.20650406504065</v>
+        <v>9.466666666666674</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4757,25 +4757,25 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C110" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D110" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E110" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="G110" t="n">
         <v>3.372641509433962</v>
@@ -4784,7 +4784,7 @@
         <v>0.03968441814595661</v>
       </c>
       <c r="I110" t="n">
-        <v>8.738461538461536</v>
+        <v>1.184249084249084</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4796,25 +4796,25 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C111" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D111" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E111" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G111" t="n">
         <v>3.372641509433962</v>
@@ -4823,7 +4823,7 @@
         <v>0.03968441814595661</v>
       </c>
       <c r="I111" t="n">
-        <v>1.184249084249084</v>
+        <v>8.738461538461536</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -4991,25 +4991,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C116" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D116" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E116" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1964285714285715</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G116" t="n">
         <v>3.191964285714286</v>
@@ -5018,7 +5018,7 @@
         <v>0.03873767258382643</v>
       </c>
       <c r="I116" t="n">
-        <v>1.167863247863248</v>
+        <v>8.55384615384615</v>
       </c>
       <c r="J116" t="n">
         <v>1</v>
@@ -5030,25 +5030,25 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C117" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D117" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E117" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.1964285714285715</v>
       </c>
       <c r="G117" t="n">
         <v>3.191964285714286</v>
@@ -5057,7 +5057,7 @@
         <v>0.03873767258382643</v>
       </c>
       <c r="I117" t="n">
-        <v>8.55384615384615</v>
+        <v>1.167863247863248</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -5069,25 +5069,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C118" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D118" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E118" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F118" t="n">
-        <v>0.34</v>
+        <v>0.8095238095238094</v>
       </c>
       <c r="G118" t="n">
         <v>3.157142857142857</v>
@@ -5096,7 +5096,7 @@
         <v>0.05956607495069033</v>
       </c>
       <c r="I118" t="n">
-        <v>1.351981351981352</v>
+        <v>3.903846153846152</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -5108,25 +5108,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C119" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D119" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E119" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8095238095238094</v>
+        <v>0.34</v>
       </c>
       <c r="G119" t="n">
         <v>3.157142857142857</v>
@@ -5135,7 +5135,7 @@
         <v>0.05956607495069033</v>
       </c>
       <c r="I119" t="n">
-        <v>3.903846153846152</v>
+        <v>1.351981351981352</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -5147,25 +5147,25 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C120" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D120" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E120" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1132075471698113</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="G120" t="n">
         <v>3.153638814016173</v>
@@ -5174,7 +5174,7 @@
         <v>0.02101249178172256</v>
       </c>
       <c r="I120" t="n">
-        <v>1.087179487179487</v>
+        <v>5.097435897435901</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -5264,25 +5264,25 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C123" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D123" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E123" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="G123" t="n">
         <v>3.153638814016173</v>
@@ -5291,7 +5291,7 @@
         <v>0.02101249178172256</v>
       </c>
       <c r="I123" t="n">
-        <v>5.097435897435901</v>
+        <v>1.087179487179487</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -5303,25 +5303,25 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C124" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D124" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E124" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G124" t="n">
         <v>3.125</v>
@@ -5330,7 +5330,7 @@
         <v>0.01743589743589744</v>
       </c>
       <c r="I124" t="n">
-        <v>1.485714285714286</v>
+        <v>1.161904761904762</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -5342,25 +5342,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C125" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D125" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E125" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G125" t="n">
         <v>3.125</v>
@@ -5369,7 +5369,7 @@
         <v>0.01743589743589744</v>
       </c>
       <c r="I125" t="n">
-        <v>1.161904761904762</v>
+        <v>1.485714285714286</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -5459,25 +5459,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>frozenset({'MS Access'})</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C128" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D128" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E128" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="G128" t="n">
         <v>2.984693877551021</v>
@@ -5486,7 +5486,7 @@
         <v>0.02046022353714662</v>
       </c>
       <c r="I128" t="n">
-        <v>4.989743589743592</v>
+        <v>1.079794871794872</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -5498,25 +5498,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C129" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D129" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E129" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1071428571428572</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="G129" t="n">
         <v>2.984693877551021</v>
@@ -5525,7 +5525,7 @@
         <v>0.02046022353714662</v>
       </c>
       <c r="I129" t="n">
-        <v>1.079794871794872</v>
+        <v>4.989743589743592</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -5537,25 +5537,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C130" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D130" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E130" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="G130" t="n">
         <v>2.970914127423823</v>
@@ -5564,7 +5564,7 @@
         <v>0.03742274819197897</v>
       </c>
       <c r="I130" t="n">
-        <v>1.912179487179487</v>
+        <v>1.270275403608737</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -5576,25 +5576,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C131" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D131" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.09743589743589744</v>
       </c>
       <c r="E131" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G131" t="n">
         <v>2.970914127423823</v>
@@ -5603,7 +5603,7 @@
         <v>0.03742274819197897</v>
       </c>
       <c r="I131" t="n">
-        <v>1.270275403608737</v>
+        <v>1.912179487179487</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -6161,25 +6161,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C146" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D146" t="n">
         <v>0.07692307692307693</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E146" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="G146" t="n">
         <v>2.394736842105263</v>
@@ -6188,7 +6188,7 @@
         <v>0.02090729783037475</v>
       </c>
       <c r="I146" t="n">
-        <v>1.509615384615384</v>
+        <v>1.13151364764268</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -6200,25 +6200,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C147" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D147" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="E147" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="G147" t="n">
         <v>2.394736842105263</v>
@@ -6227,7 +6227,7 @@
         <v>0.02090729783037475</v>
       </c>
       <c r="I147" t="n">
-        <v>1.13151364764268</v>
+        <v>1.509615384615384</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -6239,25 +6239,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C148" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="D148" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="E148" t="n">
         <v>0.08205128205128205</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.64</v>
       </c>
       <c r="G148" t="n">
         <v>2.354716981132076</v>
@@ -6266,7 +6266,7 @@
         <v>0.04720578566732413</v>
       </c>
       <c r="I148" t="n">
-        <v>1.248787248787249</v>
+        <v>2.022792022792023</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -6278,25 +6278,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C149" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D149" t="n">
         <v>0.1282051282051282</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E149" t="n">
         <v>0.08205128205128205</v>
       </c>
       <c r="F149" t="n">
-        <v>0.64</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="G149" t="n">
         <v>2.354716981132076</v>
@@ -6305,7 +6305,7 @@
         <v>0.04720578566732413</v>
       </c>
       <c r="I149" t="n">
-        <v>2.022792022792023</v>
+        <v>1.248787248787249</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
@@ -6634,29 +6634,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.06818181818181819</v>
       </c>
       <c r="G158" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H158" t="n">
-        <v>0.07316239316239316</v>
+        <v>0.0168836291913215</v>
       </c>
       <c r="I158" t="n">
-        <v>1.23010752688172</v>
+        <v>1.040150093808631</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -6673,29 +6673,29 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D159" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E159" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F159" t="n">
-        <v>0.06818181818181819</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="G159" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0168836291913215</v>
+        <v>0.03658119658119658</v>
       </c>
       <c r="I159" t="n">
-        <v>1.040150093808631</v>
+        <v>1.095111111111111</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -6751,29 +6751,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E161" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="G161" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H161" t="n">
-        <v>0.03658119658119658</v>
+        <v>0.07316239316239316</v>
       </c>
       <c r="I161" t="n">
-        <v>1.095111111111111</v>
+        <v>1.23010752688172</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -6785,7 +6785,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6794,13 +6794,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D162" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E162" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>2.215909090909091</v>
       </c>
       <c r="H162" t="n">
-        <v>0.01969756738987508</v>
+        <v>0.01406969099276792</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -6826,7 +6826,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6835,13 +6835,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D163" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E163" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -6850,7 +6850,7 @@
         <v>2.215909090909091</v>
       </c>
       <c r="H163" t="n">
-        <v>0.033767258382643</v>
+        <v>0.01406969099276792</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -6867,25 +6867,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C164" t="n">
+        <v>0.4512820512820513</v>
+      </c>
+      <c r="D164" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.4512820512820513</v>
       </c>
       <c r="E164" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="G164" t="n">
         <v>2.215909090909091</v>
@@ -6893,10 +6893,8 @@
       <c r="H164" t="n">
         <v>0.01406969099276792</v>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I164" t="n">
+        <v>1.033055298115539</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -6908,34 +6906,36 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C165" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D165" t="n">
         <v>0.4512820512820513</v>
       </c>
-      <c r="D165" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E165" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F165" t="n">
-        <v>0.05681818181818182</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H165" t="n">
-        <v>0.01406969099276792</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.033055298115539</v>
+        <v>0.0168836291913215</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -6952,29 +6952,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C166" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E166" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F166" t="n">
-        <v>0.07954545454545454</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="G166" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H166" t="n">
-        <v>0.01969756738987508</v>
+        <v>0.01406969099276792</v>
       </c>
       <c r="I166" t="n">
-        <v>1.047420069642292</v>
+        <v>1.033055298115539</v>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -7027,7 +7027,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7036,13 +7036,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D168" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E168" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>2.215909090909091</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0168836291913215</v>
+        <v>0.033767258382643</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -7068,34 +7068,36 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C169" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D169" t="n">
         <v>0.4512820512820513</v>
       </c>
-      <c r="D169" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E169" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F169" t="n">
-        <v>0.05681818181818182</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H169" t="n">
-        <v>0.01406969099276792</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.033055298115539</v>
+        <v>0.01969756738987508</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -7107,7 +7109,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7116,13 +7118,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D170" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E170" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7131,7 +7133,7 @@
         <v>2.215909090909091</v>
       </c>
       <c r="H170" t="n">
-        <v>0.01406969099276792</v>
+        <v>0.07316239316239316</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -7148,36 +7150,34 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="G171" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H171" t="n">
-        <v>0.07316239316239316</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01969756738987508</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.047420069642292</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -7189,25 +7189,25 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C172" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D172" t="n">
         <v>0.1282051282051282</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E172" t="n">
         <v>0.07179487179487179</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="G172" t="n">
         <v>2.184000000000001</v>
@@ -7216,7 +7216,7 @@
         <v>0.03892176199868508</v>
       </c>
       <c r="I172" t="n">
-        <v>1.68997668997669</v>
+        <v>1.210826210826211</v>
       </c>
       <c r="J172" t="n">
         <v>1</v>
@@ -7228,25 +7228,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C173" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="D173" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="E173" t="n">
         <v>0.07179487179487179</v>
       </c>
       <c r="F173" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G173" t="n">
         <v>2.184000000000001</v>
@@ -7255,7 +7255,7 @@
         <v>0.03892176199868508</v>
       </c>
       <c r="I173" t="n">
-        <v>1.210826210826211</v>
+        <v>1.68997668997669</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -7345,25 +7345,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C176" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D176" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E176" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="G176" t="n">
         <v>2.146226415094339</v>
@@ -7372,7 +7372,7 @@
         <v>0.01917159763313609</v>
       </c>
       <c r="I176" t="n">
-        <v>1.747692307692308</v>
+        <v>1.081270903010033</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -7384,25 +7384,25 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C177" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D177" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E177" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F177" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G177" t="n">
         <v>2.146226415094339</v>
@@ -7411,7 +7411,7 @@
         <v>0.01917159763313609</v>
       </c>
       <c r="I177" t="n">
-        <v>1.081270903010033</v>
+        <v>1.747692307692308</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -7813,25 +7813,25 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C188" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="D188" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0.2307692307692308</v>
       </c>
       <c r="E188" t="n">
         <v>0.1333333333333333</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="G188" t="n">
         <v>2.011904761904762</v>
@@ -7840,7 +7840,7 @@
         <v>0.0670611439842209</v>
       </c>
       <c r="I188" t="n">
-        <v>1.435897435897436</v>
+        <v>1.688259109311741</v>
       </c>
       <c r="J188" t="n">
         <v>1</v>
@@ -7852,25 +7852,25 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C189" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D189" t="n">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E189" t="n">
         <v>0.1333333333333333</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G189" t="n">
         <v>2.011904761904762</v>
@@ -7879,7 +7879,7 @@
         <v>0.0670611439842209</v>
       </c>
       <c r="I189" t="n">
-        <v>1.688259109311741</v>
+        <v>1.435897435897436</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
@@ -7891,25 +7891,25 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C190" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D190" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E190" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G190" t="n">
         <v>1.973684210526316</v>
@@ -7918,7 +7918,7 @@
         <v>0.01264957264957265</v>
       </c>
       <c r="I190" t="n">
-        <v>1.176190476190476</v>
+        <v>1.117460317460317</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -7930,25 +7930,25 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>frozenset({'Redis'})</t>
+          <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.1948717948717949</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="D191" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E191" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F191" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="G191" t="n">
         <v>1.973684210526316</v>
@@ -7957,7 +7957,7 @@
         <v>0.01264957264957265</v>
       </c>
       <c r="I191" t="n">
-        <v>1.074747474747475</v>
+        <v>1.176190476190476</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
@@ -7969,25 +7969,25 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>frozenset({'MongoDB'})</t>
+          <t>frozenset({'Redis'})</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D192" t="n">
-        <v>0.09743589743589744</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="E192" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F192" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G192" t="n">
         <v>1.973684210526316</v>
@@ -7996,7 +7996,7 @@
         <v>0.01264957264957265</v>
       </c>
       <c r="I192" t="n">
-        <v>1.117460317460317</v>
+        <v>1.308333333333333</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -8008,25 +8008,25 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C193" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D193" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E193" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F193" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G193" t="n">
         <v>1.973684210526316</v>
@@ -8035,7 +8035,7 @@
         <v>0.01264957264957265</v>
       </c>
       <c r="I193" t="n">
-        <v>1.308333333333333</v>
+        <v>1.074747474747475</v>
       </c>
       <c r="J193" t="n">
         <v>1</v>
@@ -8086,34 +8086,34 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'SQLite'})</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="D195" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="E195" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="F195" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G195" t="n">
         <v>1.95</v>
       </c>
       <c r="H195" t="n">
-        <v>0.01499013806706114</v>
+        <v>0.03497698882314267</v>
       </c>
       <c r="I195" t="n">
-        <v>1.066433566433566</v>
+        <v>1.162393162393162</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -8125,34 +8125,34 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>frozenset({'SQLite'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.2871794871794872</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E196" t="n">
-        <v>0.07179487179487179</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F196" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G196" t="n">
         <v>1.95</v>
       </c>
       <c r="H196" t="n">
-        <v>0.03497698882314267</v>
+        <v>0.01499013806706114</v>
       </c>
       <c r="I196" t="n">
-        <v>1.162393162393162</v>
+        <v>1.066433566433566</v>
       </c>
       <c r="J196" t="n">
         <v>1</v>
@@ -8515,25 +8515,25 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C206" t="n">
+        <v>0.4512820512820513</v>
+      </c>
+      <c r="D206" t="n">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.4512820512820513</v>
       </c>
       <c r="E206" t="n">
         <v>0.1897435897435897</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.4204545454545454</v>
       </c>
       <c r="G206" t="n">
         <v>1.821969696969697</v>
@@ -8542,7 +8542,7 @@
         <v>0.0856015779092702</v>
       </c>
       <c r="I206" t="n">
-        <v>3.086538461538461</v>
+        <v>1.327300150829562</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -8554,25 +8554,25 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C207" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="D207" t="n">
         <v>0.4512820512820513</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.2307692307692308</v>
       </c>
       <c r="E207" t="n">
         <v>0.1897435897435897</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4204545454545454</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="G207" t="n">
         <v>1.821969696969697</v>
@@ -8581,7 +8581,7 @@
         <v>0.0856015779092702</v>
       </c>
       <c r="I207" t="n">
-        <v>1.327300150829562</v>
+        <v>3.086538461538461</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -8671,25 +8671,25 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C210" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D210" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E210" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F210" t="n">
-        <v>0.1071428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="G210" t="n">
         <v>1.741071428571429</v>
@@ -8698,7 +8698,7 @@
         <v>0.01309664694280079</v>
       </c>
       <c r="I210" t="n">
-        <v>1.051076923076923</v>
+        <v>1.425641025641026</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
@@ -8710,25 +8710,25 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C211" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D211" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E211" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F211" t="n">
-        <v>0.5</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="G211" t="n">
         <v>1.741071428571429</v>
@@ -8737,7 +8737,7 @@
         <v>0.01309664694280079</v>
       </c>
       <c r="I211" t="n">
-        <v>1.425641025641026</v>
+        <v>1.051076923076923</v>
       </c>
       <c r="J211" t="n">
         <v>1</v>
@@ -8905,25 +8905,25 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C216" t="n">
+        <v>0.4512820512820513</v>
+      </c>
+      <c r="D216" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.4512820512820513</v>
       </c>
       <c r="E216" t="n">
         <v>0.1948717948717949</v>
       </c>
       <c r="F216" t="n">
-        <v>0.7600000000000001</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="G216" t="n">
         <v>1.684090909090909</v>
@@ -8932,7 +8932,7 @@
         <v>0.07915844838921764</v>
       </c>
       <c r="I216" t="n">
-        <v>2.286324786324788</v>
+        <v>1.308717948717949</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
@@ -8944,25 +8944,25 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C217" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D217" t="n">
         <v>0.4512820512820513</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E217" t="n">
         <v>0.1948717948717949</v>
       </c>
       <c r="F217" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.7600000000000001</v>
       </c>
       <c r="G217" t="n">
         <v>1.684090909090909</v>
@@ -8971,7 +8971,7 @@
         <v>0.07915844838921764</v>
       </c>
       <c r="I217" t="n">
-        <v>1.308717948717949</v>
+        <v>2.286324786324788</v>
       </c>
       <c r="J217" t="n">
         <v>1</v>
@@ -8983,34 +8983,34 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.2871794871794872</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="E218" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F218" t="n">
-        <v>0.7500000000000001</v>
+        <v>0.06818181818181819</v>
       </c>
       <c r="G218" t="n">
         <v>1.661931818181818</v>
       </c>
       <c r="H218" t="n">
-        <v>0.08578566732412887</v>
+        <v>0.01225509533201841</v>
       </c>
       <c r="I218" t="n">
-        <v>2.194871794871796</v>
+        <v>1.029143214509068</v>
       </c>
       <c r="J218" t="n">
         <v>1</v>
@@ -9022,25 +9022,25 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C219" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D219" t="n">
         <v>0.4512820512820513</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E219" t="n">
         <v>0.2153846153846154</v>
       </c>
       <c r="F219" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="G219" t="n">
         <v>1.661931818181818</v>
@@ -9049,7 +9049,7 @@
         <v>0.08578566732412887</v>
       </c>
       <c r="I219" t="n">
-        <v>1.363656633221851</v>
+        <v>2.194871794871796</v>
       </c>
       <c r="J219" t="n">
         <v>1</v>
@@ -9066,29 +9066,29 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>frozenset({'Hazelcast'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="C220" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D220" t="n">
-        <v>0.04102564102564103</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="E220" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="F220" t="n">
-        <v>0.06818181818181819</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="G220" t="n">
         <v>1.661931818181818</v>
       </c>
       <c r="H220" t="n">
-        <v>0.01225509533201841</v>
+        <v>0.08578566732412887</v>
       </c>
       <c r="I220" t="n">
-        <v>1.029143214509068</v>
+        <v>1.363656633221851</v>
       </c>
       <c r="J220" t="n">
         <v>1</v>
@@ -9607,34 +9607,34 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C234" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D234" t="n">
         <v>0.4512820512820513</v>
       </c>
-      <c r="D234" t="n">
-        <v>0.1948717948717949</v>
-      </c>
       <c r="E234" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F234" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="G234" t="n">
         <v>1.516148325358852</v>
       </c>
       <c r="H234" t="n">
-        <v>0.04539119000657461</v>
+        <v>0.02269559500328731</v>
       </c>
       <c r="I234" t="n">
-        <v>1.142762613730356</v>
+        <v>1.737606837606838</v>
       </c>
       <c r="J234" t="n">
         <v>1</v>
@@ -9646,34 +9646,34 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>frozenset({'Redis'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.1948717948717949</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="D235" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="E235" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F235" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="G235" t="n">
         <v>1.516148325358852</v>
       </c>
       <c r="H235" t="n">
-        <v>0.04539119000657461</v>
+        <v>0.02269559500328731</v>
       </c>
       <c r="I235" t="n">
-        <v>1.737606837606838</v>
+        <v>1.059008547008547</v>
       </c>
       <c r="J235" t="n">
         <v>1</v>
@@ -9685,7 +9685,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>frozenset({'MongoDB'})</t>
+          <t>frozenset({'Redis'})</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -9694,13 +9694,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.09743589743589744</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="D236" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E236" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F236" t="n">
         <v>0.6842105263157895</v>
@@ -9709,7 +9709,7 @@
         <v>1.516148325358852</v>
       </c>
       <c r="H236" t="n">
-        <v>0.02269559500328731</v>
+        <v>0.04539119000657461</v>
       </c>
       <c r="I236" t="n">
         <v>1.737606837606838</v>
@@ -9729,29 +9729,29 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>frozenset({'MongoDB'})</t>
+          <t>frozenset({'Redis'})</t>
         </is>
       </c>
       <c r="C237" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D237" t="n">
-        <v>0.09743589743589744</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="E237" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F237" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="G237" t="n">
         <v>1.516148325358852</v>
       </c>
       <c r="H237" t="n">
-        <v>0.02269559500328731</v>
+        <v>0.04539119000657461</v>
       </c>
       <c r="I237" t="n">
-        <v>1.059008547008547</v>
+        <v>1.142762613730356</v>
       </c>
       <c r="J237" t="n">
         <v>1</v>
@@ -10075,25 +10075,25 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C246" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D246" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="E246" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F246" t="n">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G246" t="n">
         <v>1.3</v>
@@ -10102,7 +10102,7 @@
         <v>0.005917159763313608</v>
       </c>
       <c r="I246" t="n">
-        <v>1.025641025641026</v>
+        <v>1.115384615384615</v>
       </c>
       <c r="J246" t="n">
         <v>1</v>
@@ -10114,25 +10114,25 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C247" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D247" t="n">
         <v>0.07692307692307693</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E247" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F247" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="G247" t="n">
         <v>1.3</v>
@@ -10141,7 +10141,7 @@
         <v>0.005917159763313608</v>
       </c>
       <c r="I247" t="n">
-        <v>1.115384615384615</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="J247" t="n">
         <v>1</v>

--- a/resources/historical_rulesv5.xlsx
+++ b/resources/historical_rulesv5.xlsx
@@ -493,25 +493,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>frozenset({'Informix'})</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C2" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E2" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>27.85714285714286</v>
@@ -519,8 +519,10 @@
       <c r="H2" t="n">
         <v>0.02472057856673241</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.410256410256411</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -532,25 +534,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>frozenset({'Informix'})</t>
-        </is>
-      </c>
       <c r="C3" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E3" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G3" t="n">
         <v>27.85714285714286</v>
@@ -558,10 +560,8 @@
       <c r="H3" t="n">
         <v>0.02472057856673241</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I3" t="n">
+        <v>3.410256410256411</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -653,36 +653,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G6" t="n">
         <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05743589743589744</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02393162393162393</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.583333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -694,25 +692,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C7" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E7" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>15</v>
@@ -720,8 +718,10 @@
       <c r="H7" t="n">
         <v>0.05743589743589744</v>
       </c>
-      <c r="I7" t="n">
-        <v>12.20000000000001</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -738,29 +738,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G8" t="n">
         <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02393162393162393</v>
+        <v>0.05743589743589744</v>
       </c>
       <c r="I8" t="n">
-        <v>1.583333333333333</v>
+        <v>12.20000000000001</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -813,25 +813,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C10" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E10" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>13.54166666666666</v>
@@ -840,7 +840,7 @@
         <v>0.02374753451676528</v>
       </c>
       <c r="I10" t="n">
-        <v>1.661538461538461</v>
+        <v>5.630769230769229</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -852,25 +852,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>frozenset({'SapHana'})</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C11" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E11" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G11" t="n">
         <v>13.54166666666666</v>
@@ -879,7 +879,7 @@
         <v>0.02374753451676528</v>
       </c>
       <c r="I11" t="n">
-        <v>5.630769230769229</v>
+        <v>1.661538461538461</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1205,25 +1205,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>frozenset({'SapHana'})</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C20" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E20" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G20" t="n">
         <v>9.285714285714285</v>
@@ -1231,10 +1231,8 @@
       <c r="H20" t="n">
         <v>0.02745562130177515</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I20" t="n">
+        <v>1.356923076923077</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1246,25 +1244,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C21" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E21" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>9.285714285714285</v>
@@ -1272,8 +1270,10 @@
       <c r="H21" t="n">
         <v>0.02745562130177515</v>
       </c>
-      <c r="I21" t="n">
-        <v>1.356923076923077</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1363,34 +1363,36 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C24" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.1282051282051282</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E24" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F24" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02682445759368837</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.275303643724696</v>
+        <v>0.02235371466140697</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1402,36 +1404,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SQLite'})</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>frozenset({'SQLite'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G25" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02682445759368837</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02235371466140697</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.217948717948718</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1443,7 +1443,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D26" t="n">
         <v>0.1282051282051282</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>7.800000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02235371466140697</v>
+        <v>0.02682445759368837</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1489,29 +1489,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0.1282051282051282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="G27" t="n">
         <v>7.800000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02235371466140697</v>
+        <v>0.02682445759368837</v>
       </c>
       <c r="I27" t="n">
-        <v>1.217948717948718</v>
+        <v>1.275303643724696</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1610,13 +1610,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D30" t="n">
         <v>0.1333333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>7.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02666666666666667</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1642,25 +1642,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C31" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E31" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2307692307692308</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>7.5</v>
@@ -1668,8 +1668,10 @@
       <c r="H31" t="n">
         <v>0.02666666666666667</v>
       </c>
-      <c r="I31" t="n">
-        <v>1.26</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1686,29 +1688,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0.1333333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G32" t="n">
         <v>7.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>1.206349206349206</v>
+        <v>1.26</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1720,25 +1722,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C33" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E33" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G33" t="n">
         <v>7.5</v>
@@ -1746,10 +1748,8 @@
       <c r="H33" t="n">
         <v>0.02222222222222222</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I33" t="n">
+        <v>1.206349206349206</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2073,25 +2073,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C42" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E42" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G42" t="n">
         <v>6.315789473684211</v>
@@ -2100,7 +2100,7 @@
         <v>0.03452991452991453</v>
       </c>
       <c r="I42" t="n">
-        <v>1.612121212121212</v>
+        <v>2.346666666666667</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2112,25 +2112,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C43" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.09743589743589744</v>
       </c>
       <c r="E43" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="G43" t="n">
         <v>6.315789473684211</v>
@@ -2139,7 +2139,7 @@
         <v>0.03452991452991453</v>
       </c>
       <c r="I43" t="n">
-        <v>2.346666666666667</v>
+        <v>1.612121212121212</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2151,34 +2151,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="G44" t="n">
         <v>6.249999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04307692307692308</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="I44" t="n">
-        <v>5.199999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2190,22 +2190,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D45" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="E45" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F45" t="n">
         <v>0.3846153846153846</v>
@@ -2214,7 +2214,7 @@
         <v>6.249999999999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04307692307692308</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="I45" t="n">
         <v>1.525</v>
@@ -2229,25 +2229,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C46" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E46" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G46" t="n">
         <v>6.249999999999999</v>
@@ -2256,7 +2256,7 @@
         <v>0.02153846153846154</v>
       </c>
       <c r="I46" t="n">
-        <v>1.6</v>
+        <v>1.525</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>frozenset({'Cassandra'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2307,22 +2307,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>frozenset({'Cassandra'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D48" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F48" t="n">
         <v>0.3846153846153846</v>
@@ -2331,7 +2331,7 @@
         <v>6.249999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02153846153846154</v>
+        <v>0.04307692307692308</v>
       </c>
       <c r="I48" t="n">
         <v>1.525</v>
@@ -2346,34 +2346,34 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="G49" t="n">
         <v>6.249999999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02153846153846154</v>
+        <v>0.04307692307692308</v>
       </c>
       <c r="I49" t="n">
-        <v>1.525</v>
+        <v>5.199999999999998</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -2385,25 +2385,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C50" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E50" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8095238095238094</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G50" t="n">
         <v>6.071428571428571</v>
@@ -2412,7 +2412,7 @@
         <v>0.07282051282051281</v>
       </c>
       <c r="I50" t="n">
-        <v>4.549999999999998</v>
+        <v>2.577777777777778</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2424,25 +2424,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C51" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E51" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.8095238095238094</v>
       </c>
       <c r="G51" t="n">
         <v>6.071428571428571</v>
@@ -2451,7 +2451,7 @@
         <v>0.07282051282051281</v>
       </c>
       <c r="I51" t="n">
-        <v>2.577777777777778</v>
+        <v>4.549999999999998</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -2541,25 +2541,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>frozenset({'DynamoDB'})</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>frozenset({'DynamoDB'})</t>
-        </is>
-      </c>
       <c r="C54" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E54" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="G54" t="n">
         <v>5.131578947368421</v>
@@ -2568,7 +2568,7 @@
         <v>0.02064431295200526</v>
       </c>
       <c r="I54" t="n">
-        <v>1.287545787545787</v>
+        <v>1.805128205128205</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -2580,25 +2580,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>frozenset({'DynamoDB'})</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C55" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.09743589743589744</v>
       </c>
       <c r="E55" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="G55" t="n">
         <v>5.131578947368421</v>
@@ -2607,7 +2607,7 @@
         <v>0.02064431295200526</v>
       </c>
       <c r="I55" t="n">
-        <v>1.805128205128205</v>
+        <v>1.287545787545787</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -2619,36 +2619,34 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G56" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04733727810650888</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02366863905325444</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.118343195266272</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -2660,34 +2658,36 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C57" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D57" t="n">
-        <v>0.06153846153846154</v>
-      </c>
       <c r="E57" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04733727810650888</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1.27972027972028</v>
+        <v>0.02366863905325444</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -2704,29 +2704,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0.2307692307692308</v>
       </c>
       <c r="D58" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E58" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G58" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02761341222879684</v>
+        <v>0.01972386587771203</v>
       </c>
       <c r="I58" t="n">
-        <v>1.1417004048583</v>
+        <v>1.096153846153846</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2738,36 +2738,34 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G59" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02761341222879684</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04733727810650888</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.27972027972028</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -2779,34 +2777,36 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C60" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D60" t="n">
-        <v>0.06666666666666667</v>
-      </c>
       <c r="E60" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2888888888888889</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.3125</v>
+        <v>0.04733727810650888</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2818,7 +2818,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D61" t="n">
         <v>0.2307692307692308</v>
       </c>
       <c r="E61" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2842,7 +2842,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.01972386587771203</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2859,34 +2859,36 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C62" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.2307692307692308</v>
       </c>
-      <c r="D62" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E62" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01972386587771203</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.096153846153846</v>
+        <v>0.02761341222879684</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -2898,36 +2900,34 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'Oracle'})</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>frozenset({'Oracle'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E63" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0.1555555555555555</v>
       </c>
       <c r="G63" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0.01972386587771203</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02761341222879684</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.1417004048583</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2944,29 +2944,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0.2307692307692308</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="G64" t="n">
         <v>4.333333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02366863905325444</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="I64" t="n">
-        <v>1.118343195266272</v>
+        <v>1.3125</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -2978,7 +2978,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2987,13 +2987,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D65" t="n">
         <v>0.2307692307692308</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02366863905325444</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3136,34 +3136,36 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>frozenset({'SQLite'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F69" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>3.9</v>
       </c>
       <c r="H69" t="n">
-        <v>0.02287968441814596</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1.234817813765182</v>
+        <v>0.02669296515450362</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -3175,25 +3177,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>frozenset({'SQLite'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E70" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G70" t="n">
         <v>3.9</v>
@@ -3202,7 +3204,7 @@
         <v>0.02287968441814596</v>
       </c>
       <c r="I70" t="n">
-        <v>1.743589743589744</v>
+        <v>1.101398601398601</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -3214,34 +3216,36 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C71" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D71" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="D71" t="n">
-        <v>0.06153846153846154</v>
-      </c>
       <c r="E71" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F71" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>3.9</v>
       </c>
       <c r="H71" t="n">
-        <v>0.04575936883629192</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.234817813765182</v>
+        <v>0.02287968441814596</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3253,7 +3257,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3262,13 +3266,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D72" t="n">
         <v>0.2564102564102564</v>
       </c>
       <c r="E72" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3277,7 +3281,7 @@
         <v>3.9</v>
       </c>
       <c r="H72" t="n">
-        <v>0.04575936883629192</v>
+        <v>0.0190664036817883</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3294,36 +3298,34 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G73" t="n">
         <v>3.9</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04957264957264958</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0190664036817883</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.082621082621082</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -3335,36 +3337,34 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="G74" t="n">
         <v>3.9</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0190664036817883</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04957264957264958</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.261261261261261</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -3376,34 +3376,36 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C75" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D75" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="D75" t="n">
-        <v>0.03076923076923077</v>
-      </c>
       <c r="E75" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F75" t="n">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>3.9</v>
       </c>
       <c r="H75" t="n">
-        <v>0.02287968441814596</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.101398601398601</v>
+        <v>0.04957264957264958</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -3415,36 +3417,34 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G76" t="n">
         <v>3.9</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02287968441814596</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.04575936883629192</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.234817813765182</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -3456,34 +3456,36 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C77" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D77" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="D77" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E77" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>3.9</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0190664036817883</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.082621082621082</v>
+        <v>0.04575936883629192</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -3495,36 +3497,34 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'SQLite'})</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G78" t="n">
         <v>3.9</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02669296515450362</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02287968441814596</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.743589743589744</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3536,34 +3536,34 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'SQLite'})</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F79" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G79" t="n">
         <v>3.9</v>
       </c>
       <c r="H79" t="n">
-        <v>0.04957264957264958</v>
+        <v>0.02287968441814596</v>
       </c>
       <c r="I79" t="n">
-        <v>1.261261261261261</v>
+        <v>1.234817813765182</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -3653,25 +3653,25 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>frozenset({'Informix'})</t>
-        </is>
-      </c>
       <c r="C82" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D82" t="n">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E82" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="G82" t="n">
         <v>3.714285714285714</v>
@@ -3680,7 +3680,7 @@
         <v>0.02248520710059172</v>
       </c>
       <c r="I82" t="n">
-        <v>1.112426035502958</v>
+        <v>5.384615384615387</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -3731,25 +3731,25 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
           <t>frozenset({'Informix'})</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C84" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="D84" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.2307692307692308</v>
       </c>
       <c r="E84" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G84" t="n">
         <v>3.714285714285714</v>
@@ -3758,7 +3758,7 @@
         <v>0.02248520710059172</v>
       </c>
       <c r="I84" t="n">
-        <v>5.384615384615387</v>
+        <v>1.112426035502958</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3809,25 +3809,25 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>frozenset({'SapHana'})</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C86" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D86" t="n">
         <v>0.03076923076923077</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E86" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="G86" t="n">
         <v>3.679245283018868</v>
@@ -3835,10 +3835,8 @@
       <c r="H86" t="n">
         <v>0.02240631163708087</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I86" t="n">
+        <v>1.092962356792144</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3850,25 +3848,25 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>frozenset({'SapHana'})</t>
-        </is>
-      </c>
       <c r="C87" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D87" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.03076923076923077</v>
       </c>
       <c r="E87" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1132075471698113</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>3.679245283018868</v>
@@ -3876,8 +3874,10 @@
       <c r="H87" t="n">
         <v>0.02240631163708087</v>
       </c>
-      <c r="I87" t="n">
-        <v>1.092962356792144</v>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -3889,25 +3889,25 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>frozenset({'Firebird'})</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C88" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D88" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E88" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G88" t="n">
         <v>3.679245283018868</v>
@@ -3915,10 +3915,8 @@
       <c r="H88" t="n">
         <v>0.01867192636423406</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I88" t="n">
+        <v>1.075854700854701</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -3930,25 +3928,25 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C89" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D89" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E89" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G89" t="n">
         <v>3.679245283018868</v>
@@ -3956,10 +3954,8 @@
       <c r="H89" t="n">
         <v>0.01867192636423406</v>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I89" t="n">
+        <v>1.075854700854701</v>
       </c>
       <c r="J89" t="n">
         <v>1</v>
@@ -3971,25 +3967,25 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>frozenset({'ClickHouse'})</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C90" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D90" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E90" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09433962264150944</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>3.679245283018868</v>
@@ -3997,8 +3993,10 @@
       <c r="H90" t="n">
         <v>0.01867192636423406</v>
       </c>
-      <c r="I90" t="n">
-        <v>1.075854700854701</v>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -4010,25 +4008,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>frozenset({'Firebird'})</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C91" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D91" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.02564102564102564</v>
       </c>
       <c r="E91" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F91" t="n">
-        <v>0.09433962264150944</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>3.679245283018868</v>
@@ -4036,8 +4034,10 @@
       <c r="H91" t="n">
         <v>0.01867192636423406</v>
       </c>
-      <c r="I91" t="n">
-        <v>1.075854700854701</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -4049,25 +4049,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C92" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="D92" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="E92" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.24</v>
       </c>
       <c r="G92" t="n">
         <v>3.600000000000001</v>
@@ -4076,7 +4076,7 @@
         <v>0.02222222222222223</v>
       </c>
       <c r="I92" t="n">
-        <v>1.619047619047619</v>
+        <v>1.228070175438597</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -4088,25 +4088,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C93" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D93" t="n">
         <v>0.1282051282051282</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E93" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F93" t="n">
-        <v>0.24</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G93" t="n">
         <v>3.600000000000001</v>
@@ -4115,7 +4115,7 @@
         <v>0.02222222222222223</v>
       </c>
       <c r="I93" t="n">
-        <v>1.228070175438597</v>
+        <v>1.619047619047619</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -4127,25 +4127,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>frozenset({'DynamoDB'})</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>frozenset({'DynamoDB'})</t>
-        </is>
-      </c>
       <c r="C94" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="D94" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.05128205128205128</v>
       </c>
       <c r="E94" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="G94" t="n">
         <v>3.592105263157895</v>
@@ -4154,7 +4154,7 @@
         <v>0.02590401051939513</v>
       </c>
       <c r="I94" t="n">
-        <v>1.162944582299421</v>
+        <v>2.683760683760684</v>
       </c>
       <c r="J94" t="n">
         <v>1</v>
@@ -4166,25 +4166,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>frozenset({'DynamoDB'})</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C95" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D95" t="n">
         <v>0.05128205128205128</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E95" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="G95" t="n">
         <v>3.592105263157895</v>
@@ -4193,7 +4193,7 @@
         <v>0.02590401051939513</v>
       </c>
       <c r="I95" t="n">
-        <v>2.683760683760684</v>
+        <v>1.162944582299421</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -4439,36 +4439,34 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>frozenset({'Firebird'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'Informix'})</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2871794871794872</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E102" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="G102" t="n">
         <v>3.482142857142857</v>
       </c>
       <c r="H102" t="n">
-        <v>0.01827744904667981</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02558842866535174</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.101831501831502</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -4480,34 +4478,36 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>frozenset({'Informix'})</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C103" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D103" t="n">
         <v>0.2871794871794872</v>
       </c>
-      <c r="D103" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E103" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F103" t="n">
-        <v>0.08928571428571429</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>3.482142857142857</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01827744904667981</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.069884364002011</v>
+        <v>0.02558842866535174</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J103" t="n">
         <v>1</v>
@@ -4519,7 +4519,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4528,13 +4528,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D104" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="E104" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -4543,7 +4543,7 @@
         <v>3.482142857142857</v>
       </c>
       <c r="H104" t="n">
-        <v>0.02193293885601578</v>
+        <v>0.01827744904667981</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -4565,29 +4565,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C105" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E105" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1071428571428572</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="G105" t="n">
         <v>3.482142857142857</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02193293885601578</v>
+        <v>0.01827744904667981</v>
       </c>
       <c r="I105" t="n">
-        <v>1.085538461538462</v>
+        <v>1.069884364002011</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -4604,29 +4604,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="D106" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E106" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F106" t="n">
-        <v>0.125</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="G106" t="n">
         <v>3.482142857142857</v>
       </c>
       <c r="H106" t="n">
-        <v>0.02558842866535174</v>
+        <v>0.02193293885601578</v>
       </c>
       <c r="I106" t="n">
-        <v>1.101831501831502</v>
+        <v>1.085538461538462</v>
       </c>
       <c r="J106" t="n">
         <v>1</v>
@@ -4638,7 +4638,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>frozenset({'Informix'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="D107" t="n">
         <v>0.2871794871794872</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -4662,7 +4662,7 @@
         <v>3.482142857142857</v>
       </c>
       <c r="H107" t="n">
-        <v>0.02558842866535174</v>
+        <v>0.02193293885601578</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -4679,25 +4679,25 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C108" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D108" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E108" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2264150943396227</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G108" t="n">
         <v>3.39622641509434</v>
@@ -4706,7 +4706,7 @@
         <v>0.04341880341880343</v>
       </c>
       <c r="I108" t="n">
-        <v>1.20650406504065</v>
+        <v>9.466666666666674</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -4718,25 +4718,25 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C109" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D109" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E109" t="n">
         <v>0.06153846153846154</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.2264150943396227</v>
       </c>
       <c r="G109" t="n">
         <v>3.39622641509434</v>
@@ -4745,7 +4745,7 @@
         <v>0.04341880341880343</v>
       </c>
       <c r="I109" t="n">
-        <v>9.466666666666674</v>
+        <v>1.20650406504065</v>
       </c>
       <c r="J109" t="n">
         <v>1</v>
@@ -4757,25 +4757,25 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
+          <t>frozenset({'SAP Adaptive Server'})</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
-        </is>
-      </c>
       <c r="C110" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D110" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E110" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G110" t="n">
         <v>3.372641509433962</v>
@@ -4784,7 +4784,7 @@
         <v>0.03968441814595661</v>
       </c>
       <c r="I110" t="n">
-        <v>1.184249084249084</v>
+        <v>8.738461538461536</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -4796,25 +4796,25 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C111" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D111" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E111" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="G111" t="n">
         <v>3.372641509433962</v>
@@ -4823,7 +4823,7 @@
         <v>0.03968441814595661</v>
       </c>
       <c r="I111" t="n">
-        <v>8.738461538461536</v>
+        <v>1.184249084249084</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -5069,25 +5069,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C118" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D118" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E118" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8095238095238094</v>
+        <v>0.34</v>
       </c>
       <c r="G118" t="n">
         <v>3.157142857142857</v>
@@ -5096,7 +5096,7 @@
         <v>0.05956607495069033</v>
       </c>
       <c r="I118" t="n">
-        <v>3.903846153846152</v>
+        <v>1.351981351981352</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -5108,25 +5108,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C119" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D119" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E119" t="n">
         <v>0.08717948717948718</v>
       </c>
       <c r="F119" t="n">
-        <v>0.34</v>
+        <v>0.8095238095238094</v>
       </c>
       <c r="G119" t="n">
         <v>3.157142857142857</v>
@@ -5135,7 +5135,7 @@
         <v>0.05956607495069033</v>
       </c>
       <c r="I119" t="n">
-        <v>1.351981351981352</v>
+        <v>3.903846153846152</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -5381,25 +5381,25 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>frozenset({'SQLite'})</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>frozenset({'SQLite'})</t>
-        </is>
-      </c>
       <c r="C126" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="D126" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="E126" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5408,7 +5408,7 @@
         <v>0.03418803418803419</v>
       </c>
       <c r="I126" t="n">
-        <v>1.416666666666667</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -5420,25 +5420,25 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>frozenset({'SQLite'})</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C127" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D127" t="n">
         <v>0.1282051282051282</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E127" t="n">
         <v>0.05128205128205128</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5447,7 +5447,7 @@
         <v>0.03418803418803419</v>
       </c>
       <c r="I127" t="n">
-        <v>1.444444444444445</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -5459,25 +5459,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C128" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D128" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E128" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1071428571428572</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="G128" t="n">
         <v>2.984693877551021</v>
@@ -5486,7 +5486,7 @@
         <v>0.02046022353714662</v>
       </c>
       <c r="I128" t="n">
-        <v>1.079794871794872</v>
+        <v>4.989743589743592</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -5498,25 +5498,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>frozenset({'MS Access'})</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C129" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D129" t="n">
         <v>0.03589743589743589</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E129" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="G129" t="n">
         <v>2.984693877551021</v>
@@ -5525,7 +5525,7 @@
         <v>0.02046022353714662</v>
       </c>
       <c r="I129" t="n">
-        <v>4.989743589743592</v>
+        <v>1.079794871794872</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -5537,25 +5537,25 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C130" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D130" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.09743589743589744</v>
       </c>
       <c r="E130" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="G130" t="n">
         <v>2.970914127423823</v>
@@ -5564,7 +5564,7 @@
         <v>0.03742274819197897</v>
       </c>
       <c r="I130" t="n">
-        <v>1.270275403608737</v>
+        <v>1.912179487179487</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
@@ -5576,25 +5576,25 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C131" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D131" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E131" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="G131" t="n">
         <v>2.970914127423823</v>
@@ -5603,7 +5603,7 @@
         <v>0.03742274819197897</v>
       </c>
       <c r="I131" t="n">
-        <v>1.912179487179487</v>
+        <v>1.270275403608737</v>
       </c>
       <c r="J131" t="n">
         <v>1</v>
@@ -5615,25 +5615,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C132" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D132" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E132" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.1964285714285715</v>
       </c>
       <c r="G132" t="n">
         <v>2.946428571428572</v>
@@ -5642,7 +5642,7 @@
         <v>0.03726495726495727</v>
       </c>
       <c r="I132" t="n">
-        <v>4.633333333333333</v>
+        <v>1.161481481481482</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -5654,25 +5654,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
-        </is>
-      </c>
       <c r="C133" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D133" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E133" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1964285714285715</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G133" t="n">
         <v>2.946428571428572</v>
@@ -5681,7 +5681,7 @@
         <v>0.03726495726495727</v>
       </c>
       <c r="I133" t="n">
-        <v>1.161481481481482</v>
+        <v>4.633333333333333</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -6161,25 +6161,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C146" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D146" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="E146" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="G146" t="n">
         <v>2.394736842105263</v>
@@ -6188,7 +6188,7 @@
         <v>0.02090729783037475</v>
       </c>
       <c r="I146" t="n">
-        <v>1.13151364764268</v>
+        <v>1.509615384615384</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -6200,25 +6200,25 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C147" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D147" t="n">
         <v>0.07692307692307693</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E147" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="G147" t="n">
         <v>2.394736842105263</v>
@@ -6227,7 +6227,7 @@
         <v>0.02090729783037475</v>
       </c>
       <c r="I147" t="n">
-        <v>1.509615384615384</v>
+        <v>1.13151364764268</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -6473,25 +6473,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>frozenset({'Hazelcast'})</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>frozenset({'Hazelcast'})</t>
-        </is>
-      </c>
       <c r="C154" t="n">
+        <v>0.04102564102564103</v>
+      </c>
+      <c r="D154" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.04102564102564103</v>
       </c>
       <c r="E154" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F154" t="n">
-        <v>0.09433962264150944</v>
+        <v>0.625</v>
       </c>
       <c r="G154" t="n">
         <v>2.299528301886792</v>
@@ -6500,7 +6500,7 @@
         <v>0.01449046679815911</v>
       </c>
       <c r="I154" t="n">
-        <v>1.058867521367521</v>
+        <v>1.941880341880342</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -6512,25 +6512,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>frozenset({'Hazelcast'})</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C155" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D155" t="n">
         <v>0.04102564102564103</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E155" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F155" t="n">
-        <v>0.625</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G155" t="n">
         <v>2.299528301886792</v>
@@ -6539,7 +6539,7 @@
         <v>0.01449046679815911</v>
       </c>
       <c r="I155" t="n">
-        <v>1.941880341880342</v>
+        <v>1.058867521367521</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -6551,25 +6551,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>frozenset({'Cassandra'})</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>frozenset({'Cassandra'})</t>
-        </is>
-      </c>
       <c r="C156" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D156" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.06666666666666667</v>
       </c>
       <c r="E156" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G156" t="n">
         <v>2.264150943396227</v>
@@ -6578,7 +6578,7 @@
         <v>0.02290598290598291</v>
       </c>
       <c r="I156" t="n">
-        <v>1.099259259259259</v>
+        <v>1.893333333333334</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -6590,25 +6590,25 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
           <t>frozenset({'Cassandra'})</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C157" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D157" t="n">
         <v>0.06666666666666667</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E157" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="G157" t="n">
         <v>2.264150943396227</v>
@@ -6617,7 +6617,7 @@
         <v>0.02290598290598291</v>
       </c>
       <c r="I157" t="n">
-        <v>1.893333333333334</v>
+        <v>1.099259259259259</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -6634,29 +6634,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="C158" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D158" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E158" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F158" t="n">
-        <v>0.06818181818181819</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="G158" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0168836291913215</v>
+        <v>0.07316239316239316</v>
       </c>
       <c r="I158" t="n">
-        <v>1.040150093808631</v>
+        <v>1.23010752688172</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -6673,29 +6673,29 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'SapHana'})</t>
         </is>
       </c>
       <c r="C159" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D159" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="E159" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.06818181818181819</v>
       </c>
       <c r="G159" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H159" t="n">
-        <v>0.03658119658119658</v>
+        <v>0.0168836291913215</v>
       </c>
       <c r="I159" t="n">
-        <v>1.095111111111111</v>
+        <v>1.040150093808631</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
@@ -6712,29 +6712,29 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="C160" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E160" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="G160" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H160" t="n">
-        <v>0.033767258382643</v>
+        <v>0.03658119658119658</v>
       </c>
       <c r="I160" t="n">
-        <v>1.08663967611336</v>
+        <v>1.095111111111111</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -6751,29 +6751,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="C161" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="E161" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="G161" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H161" t="n">
-        <v>0.07316239316239316</v>
+        <v>0.033767258382643</v>
       </c>
       <c r="I161" t="n">
-        <v>1.23010752688172</v>
+        <v>1.08663967611336</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -6826,25 +6826,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>frozenset({'ClickHouse'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'Firebird'})</t>
         </is>
       </c>
       <c r="C163" t="n">
+        <v>0.4512820512820513</v>
+      </c>
+      <c r="D163" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.4512820512820513</v>
       </c>
       <c r="E163" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="G163" t="n">
         <v>2.215909090909091</v>
@@ -6852,10 +6852,8 @@
       <c r="H163" t="n">
         <v>0.01406969099276792</v>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="I163" t="n">
+        <v>1.033055298115539</v>
       </c>
       <c r="J163" t="n">
         <v>1</v>
@@ -6867,34 +6865,36 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
+          <t>frozenset({'SapHana'})</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>frozenset({'Firebird'})</t>
-        </is>
-      </c>
       <c r="C164" t="n">
+        <v>0.03076923076923077</v>
+      </c>
+      <c r="D164" t="n">
         <v>0.4512820512820513</v>
       </c>
-      <c r="D164" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E164" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F164" t="n">
-        <v>0.05681818181818182</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H164" t="n">
-        <v>0.01406969099276792</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.033055298115539</v>
+        <v>0.0168836291913215</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -6906,7 +6906,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>frozenset({'SapHana'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6915,13 +6915,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D165" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E165" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -6930,7 +6930,7 @@
         <v>2.215909090909091</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0168836291913215</v>
+        <v>0.07316239316239316</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -6947,34 +6947,36 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>frozenset({'ClickHouse'})</t>
-        </is>
-      </c>
       <c r="C166" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D166" t="n">
         <v>0.4512820512820513</v>
       </c>
-      <c r="D166" t="n">
-        <v>0.02564102564102564</v>
-      </c>
       <c r="E166" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F166" t="n">
-        <v>0.05681818181818182</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H166" t="n">
-        <v>0.01406969099276792</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1.033055298115539</v>
+        <v>0.03658119658119658</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J166" t="n">
         <v>1</v>
@@ -6986,36 +6988,34 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'MS Access'})</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E167" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="G167" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H167" t="n">
-        <v>0.03658119658119658</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01969756738987508</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.047420069642292</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -7027,36 +7027,34 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>frozenset({'SAP Adaptive Server'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E168" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="G168" t="n">
         <v>2.215909090909091</v>
       </c>
       <c r="H168" t="n">
-        <v>0.033767258382643</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.01406969099276792</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.033055298115539</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -7068,7 +7066,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>frozenset({'MS Access'})</t>
+          <t>frozenset({'ClickHouse'})</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7077,13 +7075,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D169" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E169" t="n">
-        <v>0.03589743589743589</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F169" t="n">
         <v>1</v>
@@ -7092,7 +7090,7 @@
         <v>2.215909090909091</v>
       </c>
       <c r="H169" t="n">
-        <v>0.01969756738987508</v>
+        <v>0.01406969099276792</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -7109,7 +7107,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'SAP Adaptive Server'})</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7118,13 +7116,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D170" t="n">
         <v>0.4512820512820513</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -7133,7 +7131,7 @@
         <v>2.215909090909091</v>
       </c>
       <c r="H170" t="n">
-        <v>0.07316239316239316</v>
+        <v>0.033767258382643</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -7150,25 +7148,25 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>frozenset({'MS Access'})</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>frozenset({'MS Access'})</t>
-        </is>
-      </c>
       <c r="C171" t="n">
+        <v>0.03589743589743589</v>
+      </c>
+      <c r="D171" t="n">
         <v>0.4512820512820513</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.03589743589743589</v>
       </c>
       <c r="E171" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F171" t="n">
-        <v>0.07954545454545454</v>
+        <v>1</v>
       </c>
       <c r="G171" t="n">
         <v>2.215909090909091</v>
@@ -7176,8 +7174,10 @@
       <c r="H171" t="n">
         <v>0.01969756738987508</v>
       </c>
-      <c r="I171" t="n">
-        <v>1.047420069642292</v>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -7345,25 +7345,25 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C176" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D176" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E176" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="G176" t="n">
         <v>2.146226415094339</v>
@@ -7372,7 +7372,7 @@
         <v>0.01917159763313609</v>
       </c>
       <c r="I176" t="n">
-        <v>1.081270903010033</v>
+        <v>1.747692307692308</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -7384,25 +7384,25 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C177" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D177" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E177" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="G177" t="n">
         <v>2.146226415094339</v>
@@ -7411,7 +7411,7 @@
         <v>0.01917159763313609</v>
       </c>
       <c r="I177" t="n">
-        <v>1.747692307692308</v>
+        <v>1.081270903010033</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -7657,25 +7657,25 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C184" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D184" t="n">
         <v>0.4512820512820513</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E184" t="n">
         <v>0.2512820512820513</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5568181818181818</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="G184" t="n">
         <v>2.048670668953688</v>
@@ -7684,7 +7684,7 @@
         <v>0.1286259040105194</v>
       </c>
       <c r="I184" t="n">
-        <v>1.643129520052597</v>
+        <v>7.270512820512823</v>
       </c>
       <c r="J184" t="n">
         <v>1</v>
@@ -7696,25 +7696,25 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C185" t="n">
+        <v>0.4512820512820513</v>
+      </c>
+      <c r="D185" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0.4512820512820513</v>
       </c>
       <c r="E185" t="n">
         <v>0.2512820512820513</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.5568181818181818</v>
       </c>
       <c r="G185" t="n">
         <v>2.048670668953688</v>
@@ -7723,7 +7723,7 @@
         <v>0.1286259040105194</v>
       </c>
       <c r="I185" t="n">
-        <v>7.270512820512823</v>
+        <v>1.643129520052597</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
@@ -7735,25 +7735,25 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C186" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D186" t="n">
         <v>0.4512820512820513</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E186" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F186" t="n">
-        <v>0.125</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G186" t="n">
         <v>2.03125</v>
@@ -7762,7 +7762,7 @@
         <v>0.02863905325443787</v>
       </c>
       <c r="I186" t="n">
-        <v>1.072527472527472</v>
+        <v>6.584615384615383</v>
       </c>
       <c r="J186" t="n">
         <v>1</v>
@@ -7774,25 +7774,25 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C187" t="n">
+        <v>0.4512820512820513</v>
+      </c>
+      <c r="D187" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0.4512820512820513</v>
       </c>
       <c r="E187" t="n">
         <v>0.05641025641025641</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="G187" t="n">
         <v>2.03125</v>
@@ -7801,7 +7801,7 @@
         <v>0.02863905325443787</v>
       </c>
       <c r="I187" t="n">
-        <v>6.584615384615383</v>
+        <v>1.072527472527472</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -7930,25 +7930,25 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>frozenset({'MongoDB'})</t>
+          <t>frozenset({'SAP SQL Anywhere'})</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+          <t>frozenset({'Redis'})</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.09743589743589744</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="E191" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G191" t="n">
         <v>1.973684210526316</v>
@@ -7957,7 +7957,7 @@
         <v>0.01264957264957265</v>
       </c>
       <c r="I191" t="n">
-        <v>1.176190476190476</v>
+        <v>1.308333333333333</v>
       </c>
       <c r="J191" t="n">
         <v>1</v>
@@ -7969,25 +7969,25 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>frozenset({'SAP SQL Anywhere'})</t>
+          <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>frozenset({'Redis'})</t>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1948717948717949</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E192" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="G192" t="n">
         <v>1.973684210526316</v>
@@ -7996,7 +7996,7 @@
         <v>0.01264957264957265</v>
       </c>
       <c r="I192" t="n">
-        <v>1.308333333333333</v>
+        <v>1.176190476190476</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -8086,34 +8086,34 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>frozenset({'H2'})</t>
+          <t>frozenset({'HBase'})</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>frozenset({'SQLite'})</t>
+          <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.2871794871794872</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="E195" t="n">
-        <v>0.07179487179487179</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="F195" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="n">
         <v>1.95</v>
       </c>
       <c r="H195" t="n">
-        <v>0.03497698882314267</v>
+        <v>0.01499013806706114</v>
       </c>
       <c r="I195" t="n">
-        <v>1.162393162393162</v>
+        <v>1.487179487179487</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -8164,34 +8164,34 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>frozenset({'HBase'})</t>
+          <t>frozenset({'H2'})</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>frozenset({'HyperSQL'})</t>
+          <t>frozenset({'SQLite'})</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="E197" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="n">
         <v>1.95</v>
       </c>
       <c r="H197" t="n">
-        <v>0.01499013806706114</v>
+        <v>0.03497698882314267</v>
       </c>
       <c r="I197" t="n">
-        <v>1.487179487179487</v>
+        <v>1.162393162393162</v>
       </c>
       <c r="J197" t="n">
         <v>1</v>
@@ -8203,25 +8203,25 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
-        </is>
-      </c>
       <c r="C198" t="n">
+        <v>0.2717948717948718</v>
+      </c>
+      <c r="D198" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0.2717948717948718</v>
       </c>
       <c r="E198" t="n">
         <v>0.1025641025641026</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="G198" t="n">
         <v>1.936444885799404</v>
@@ -8230,7 +8230,7 @@
         <v>0.04959894806048652</v>
       </c>
       <c r="I198" t="n">
-        <v>1.537321937321937</v>
+        <v>1.293084693084693</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
@@ -8242,25 +8242,25 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
           <t>frozenset({'PostgreSQL_ CockroachDB'})</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C199" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D199" t="n">
         <v>0.2717948717948718</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E199" t="n">
         <v>0.1025641025641026</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="G199" t="n">
         <v>1.936444885799404</v>
@@ -8269,7 +8269,7 @@
         <v>0.04959894806048652</v>
       </c>
       <c r="I199" t="n">
-        <v>1.293084693084693</v>
+        <v>1.537321937321937</v>
       </c>
       <c r="J199" t="n">
         <v>1</v>
@@ -8515,25 +8515,25 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
+          <t>frozenset({'Oracle'})</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>frozenset({'Oracle'})</t>
-        </is>
-      </c>
       <c r="C206" t="n">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="D206" t="n">
         <v>0.4512820512820513</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0.2307692307692308</v>
       </c>
       <c r="E206" t="n">
         <v>0.1897435897435897</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4204545454545454</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="G206" t="n">
         <v>1.821969696969697</v>
@@ -8542,7 +8542,7 @@
         <v>0.0856015779092702</v>
       </c>
       <c r="I206" t="n">
-        <v>1.327300150829562</v>
+        <v>3.086538461538461</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -8554,25 +8554,25 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>frozenset({'MySQL_Maria DB'})</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
           <t>frozenset({'Oracle'})</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
-        </is>
-      </c>
       <c r="C207" t="n">
+        <v>0.4512820512820513</v>
+      </c>
+      <c r="D207" t="n">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0.4512820512820513</v>
       </c>
       <c r="E207" t="n">
         <v>0.1897435897435897</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.4204545454545454</v>
       </c>
       <c r="G207" t="n">
         <v>1.821969696969697</v>
@@ -8581,7 +8581,7 @@
         <v>0.0856015779092702</v>
       </c>
       <c r="I207" t="n">
-        <v>3.086538461538461</v>
+        <v>1.327300150829562</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -8593,25 +8593,25 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C208" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D208" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E208" t="n">
         <v>0.1282051282051282</v>
       </c>
       <c r="F208" t="n">
-        <v>0.4464285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="n">
         <v>1.741071428571429</v>
@@ -8620,7 +8620,7 @@
         <v>0.05456936226166996</v>
       </c>
       <c r="I208" t="n">
-        <v>1.343258891645988</v>
+        <v>1.425641025641026</v>
       </c>
       <c r="J208" t="n">
         <v>1</v>
@@ -8632,25 +8632,25 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C209" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D209" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E209" t="n">
         <v>0.1282051282051282</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="G209" t="n">
         <v>1.741071428571429</v>
@@ -8659,7 +8659,7 @@
         <v>0.05456936226166996</v>
       </c>
       <c r="I209" t="n">
-        <v>1.425641025641026</v>
+        <v>1.343258891645988</v>
       </c>
       <c r="J209" t="n">
         <v>1</v>
@@ -8671,25 +8671,25 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>frozenset({'HBase'})</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C210" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D210" t="n">
         <v>0.06153846153846154</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E210" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5</v>
+        <v>0.1071428571428572</v>
       </c>
       <c r="G210" t="n">
         <v>1.741071428571429</v>
@@ -8698,7 +8698,7 @@
         <v>0.01309664694280079</v>
       </c>
       <c r="I210" t="n">
-        <v>1.425641025641026</v>
+        <v>1.051076923076923</v>
       </c>
       <c r="J210" t="n">
         <v>1</v>
@@ -8710,25 +8710,25 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
+          <t>frozenset({'HBase'})</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>frozenset({'HBase'})</t>
-        </is>
-      </c>
       <c r="C211" t="n">
+        <v>0.06153846153846154</v>
+      </c>
+      <c r="D211" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0.06153846153846154</v>
       </c>
       <c r="E211" t="n">
         <v>0.03076923076923077</v>
       </c>
       <c r="F211" t="n">
-        <v>0.1071428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="n">
         <v>1.741071428571429</v>
@@ -8737,7 +8737,7 @@
         <v>0.01309664694280079</v>
       </c>
       <c r="I211" t="n">
-        <v>1.051076923076923</v>
+        <v>1.425641025641026</v>
       </c>
       <c r="J211" t="n">
         <v>1</v>
@@ -9139,25 +9139,25 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
+          <t>frozenset({'H2'})</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>frozenset({'H2'})</t>
-        </is>
-      </c>
       <c r="C222" t="n">
+        <v>0.2871794871794872</v>
+      </c>
+      <c r="D222" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.2871794871794872</v>
       </c>
       <c r="E222" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F222" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="G222" t="n">
         <v>1.649436090225564</v>
@@ -9166,7 +9166,7 @@
         <v>0.01817225509533202</v>
       </c>
       <c r="I222" t="n">
-        <v>1.354358974358975</v>
+        <v>1.075395526459356</v>
       </c>
       <c r="J222" t="n">
         <v>1</v>
@@ -9178,25 +9178,25 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>frozenset({'H2'})</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C223" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D223" t="n">
         <v>0.2871794871794872</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.09743589743589744</v>
       </c>
       <c r="E223" t="n">
         <v>0.04615384615384616</v>
       </c>
       <c r="F223" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G223" t="n">
         <v>1.649436090225564</v>
@@ -9205,7 +9205,7 @@
         <v>0.01817225509533202</v>
       </c>
       <c r="I223" t="n">
-        <v>1.075395526459356</v>
+        <v>1.354358974358975</v>
       </c>
       <c r="J223" t="n">
         <v>1</v>
@@ -9295,25 +9295,25 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
-        </is>
-      </c>
       <c r="C226" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="D226" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0.1333333333333333</v>
       </c>
       <c r="E226" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F226" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G226" t="n">
         <v>1.578947368421053</v>
@@ -9322,7 +9322,7 @@
         <v>0.01504273504273504</v>
       </c>
       <c r="I226" t="n">
-        <v>1.097777777777778</v>
+        <v>1.162962962962963</v>
       </c>
       <c r="J226" t="n">
         <v>1</v>
@@ -9334,25 +9334,25 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
           <t>frozenset({'MS SQL Server_Microsoft Azure SQL Database'})</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C227" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D227" t="n">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E227" t="n">
         <v>0.04102564102564103</v>
       </c>
       <c r="F227" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="G227" t="n">
         <v>1.578947368421053</v>
@@ -9361,7 +9361,7 @@
         <v>0.01504273504273504</v>
       </c>
       <c r="I227" t="n">
-        <v>1.162962962962963</v>
+        <v>1.097777777777778</v>
       </c>
       <c r="J227" t="n">
         <v>1</v>
@@ -9529,25 +9529,25 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C232" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D232" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E232" t="n">
         <v>0.07692307692307693</v>
       </c>
       <c r="F232" t="n">
-        <v>0.3</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="G232" t="n">
         <v>1.539473684210527</v>
@@ -9556,7 +9556,7 @@
         <v>0.02695595003287312</v>
       </c>
       <c r="I232" t="n">
-        <v>1.15018315018315</v>
+        <v>1.228539576365663</v>
       </c>
       <c r="J232" t="n">
         <v>1</v>
@@ -9568,25 +9568,25 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C233" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D233" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E233" t="n">
         <v>0.07692307692307693</v>
       </c>
       <c r="F233" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.3</v>
       </c>
       <c r="G233" t="n">
         <v>1.539473684210527</v>
@@ -9595,7 +9595,7 @@
         <v>0.02695595003287312</v>
       </c>
       <c r="I233" t="n">
-        <v>1.228539576365663</v>
+        <v>1.15018315018315</v>
       </c>
       <c r="J233" t="n">
         <v>1</v>
@@ -9646,34 +9646,34 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C235" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D235" t="n">
         <v>0.4512820512820513</v>
       </c>
-      <c r="D235" t="n">
-        <v>0.09743589743589744</v>
-      </c>
       <c r="E235" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F235" t="n">
-        <v>0.1477272727272727</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="G235" t="n">
         <v>1.516148325358852</v>
       </c>
       <c r="H235" t="n">
-        <v>0.02269559500328731</v>
+        <v>0.04539119000657461</v>
       </c>
       <c r="I235" t="n">
-        <v>1.059008547008547</v>
+        <v>1.737606837606838</v>
       </c>
       <c r="J235" t="n">
         <v>1</v>
@@ -9685,34 +9685,34 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>frozenset({'Redis'})</t>
+          <t>frozenset({'MySQL_Maria DB'})</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>frozenset({'MySQL_Maria DB'})</t>
+          <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.1948717948717949</v>
+        <v>0.4512820512820513</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="E236" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F236" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="G236" t="n">
         <v>1.516148325358852</v>
       </c>
       <c r="H236" t="n">
-        <v>0.04539119000657461</v>
+        <v>0.02269559500328731</v>
       </c>
       <c r="I236" t="n">
-        <v>1.737606837606838</v>
+        <v>1.059008547008547</v>
       </c>
       <c r="J236" t="n">
         <v>1</v>
@@ -9919,25 +9919,25 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
+          <t>frozenset({'MongoDB'})</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>frozenset({'MongoDB'})</t>
-        </is>
-      </c>
       <c r="C242" t="n">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="D242" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.09743589743589744</v>
       </c>
       <c r="E242" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F242" t="n">
-        <v>0.14</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="G242" t="n">
         <v>1.436842105263158</v>
@@ -9946,7 +9946,7 @@
         <v>0.01091387245233399</v>
       </c>
       <c r="I242" t="n">
-        <v>1.049493142516398</v>
+        <v>1.177350427350427</v>
       </c>
       <c r="J242" t="n">
         <v>1</v>
@@ -9958,25 +9958,25 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
           <t>frozenset({'MongoDB'})</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C243" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D243" t="n">
         <v>0.09743589743589744</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E243" t="n">
         <v>0.03589743589743589</v>
       </c>
       <c r="F243" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.14</v>
       </c>
       <c r="G243" t="n">
         <v>1.436842105263158</v>
@@ -9985,7 +9985,7 @@
         <v>0.01091387245233399</v>
       </c>
       <c r="I243" t="n">
-        <v>1.177350427350427</v>
+        <v>1.049493142516398</v>
       </c>
       <c r="J243" t="n">
         <v>1</v>
@@ -10075,25 +10075,25 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
+          <t>frozenset({'HyperSQL'})</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>frozenset({'Google Cloud Datastore'})</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>frozenset({'HyperSQL'})</t>
-        </is>
-      </c>
       <c r="C246" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D246" t="n">
         <v>0.07692307692307693</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.2564102564102564</v>
       </c>
       <c r="E246" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F246" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="G246" t="n">
         <v>1.3</v>
@@ -10102,7 +10102,7 @@
         <v>0.005917159763313608</v>
       </c>
       <c r="I246" t="n">
-        <v>1.115384615384615</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="J246" t="n">
         <v>1</v>
@@ -10114,25 +10114,25 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
+          <t>frozenset({'Google Cloud Datastore'})</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
           <t>frozenset({'HyperSQL'})</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>frozenset({'Google Cloud Datastore'})</t>
-        </is>
-      </c>
       <c r="C247" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D247" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="E247" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F247" t="n">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G247" t="n">
         <v>1.3</v>
@@ -10141,7 +10141,7 @@
         <v>0.005917159763313608</v>
       </c>
       <c r="I247" t="n">
-        <v>1.025641025641026</v>
+        <v>1.115384615384615</v>
       </c>
       <c r="J247" t="n">
         <v>1</v>
@@ -10153,25 +10153,25 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
+          <t>frozenset({'IBM DB2'})</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
           <t>frozenset({'Redis'})</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>frozenset({'IBM DB2'})</t>
-        </is>
-      </c>
       <c r="C248" t="n">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="D248" t="n">
         <v>0.1948717948717949</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.1076923076923077</v>
       </c>
       <c r="E248" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F248" t="n">
-        <v>0.131578947368421</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="G248" t="n">
         <v>1.221804511278195</v>
@@ -10180,7 +10180,7 @@
         <v>0.004654832347140037</v>
       </c>
       <c r="I248" t="n">
-        <v>1.027505827505827</v>
+        <v>1.056730769230769</v>
       </c>
       <c r="J248" t="n">
         <v>1</v>
@@ -10192,25 +10192,25 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>frozenset({'Redis'})</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
           <t>frozenset({'IBM DB2'})</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>frozenset({'Redis'})</t>
-        </is>
-      </c>
       <c r="C249" t="n">
+        <v>0.1948717948717949</v>
+      </c>
+      <c r="D249" t="n">
         <v>0.1076923076923077</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.1948717948717949</v>
       </c>
       <c r="E249" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="F249" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G249" t="n">
         <v>1.221804511278195</v>
@@ -10219,7 +10219,7 @@
         <v>0.004654832347140037</v>
       </c>
       <c r="I249" t="n">
-        <v>1.056730769230769</v>
+        <v>1.027505827505827</v>
       </c>
       <c r="J249" t="n">
         <v>1</v>
